--- a/JP (Exclude Game)/Dialog/Drama/_tutorial.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/_tutorial.xlsx
@@ -11,7 +11,7 @@
     <sheet name="index" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="nerun" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -1944,23 +1944,23 @@
   </si>
   <si>
     <t xml:space="preserve">まだベッドを作っていないなら
-「瞑想」のアビリティを使うことで眠ることもできるわ。
+「休憩」のアビリティを使うことで眠ることもできるわ。
 ベッドで眠るより効果はおちるけどね。</t>
   </si>
   <si>
     <t xml:space="preserve">If you haven't made a bed yet,
-you can use the "Meditation" ability to sleep.
+you can use the "Rest" ability to sleep.
 It's not as effective as sleeping in a bed, though.</t>
   </si>
   <si>
-    <t xml:space="preserve">瞑想中は体力や魔力の自然回復量も上がるから
-戦いの後は瞑想で休憩するのもありね。
+    <t xml:space="preserve">休憩中は体力や魔力の自然回復量も上がるから
+戦いの後は休憩するのもありね。
 ただ、過労や飢餓状態の時は
 自然回復自体止まってしまうから気を付けて。</t>
   </si>
   <si>
-    <t xml:space="preserve">During meditation, your natural recovery of health and magic power increases,
-so it's good to rest through meditation after a battle.
+    <t xml:space="preserve">When resting, your natural recovery of health and magic power increases,
+so it's good to rest after a battle.
 Just be careful, because if you're overworked or starving,
 natural recovery stops altogether.</t>
   </si>
@@ -3292,9 +3292,9 @@
   <dimension ref="A1:K348"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J149" activeCellId="0" sqref="J149"/>
+      <selection pane="bottomLeft" activeCell="I317" activeCellId="0" sqref="I317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3508,13 +3508,13 @@
       <c r="J22" s="4"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>104</v>
       </c>

--- a/JP (Exclude Game)/Dialog/Drama/_tutorial.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/_tutorial.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="536">
   <si>
     <t xml:space="preserve">version</t>
   </si>
@@ -344,6 +344,15 @@
     <t xml:space="preserve">Winter Warning</t>
   </si>
   <si>
+    <t xml:space="preserve">worldend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラグナロク・ノ・刻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hour of Ragnarok</t>
+  </si>
+  <si>
     <t xml:space="preserve">jump</t>
   </si>
   <si>
@@ -381,6 +390,84 @@
   </si>
   <si>
     <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チリンチリーン！ 
+キミが冒険を開始してから…
+なんと2千年もの時が過ぎました！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinkle-tinkle!
+Can you believe it?
+It's been two thousand years since you started your adventure!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なかなか、長生きするのね？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're quite the long-liver, aren't you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私？　
+…失礼ね。私はもちろん、いつまでもピチピチの妖精の乙女よ。
+妖精って、そういう生き物だから。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me?
+...How rude. I'm still a sprightly fairy maiden, of course.
+That's just how fairies are.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">でも大変！
+この世界も、永遠に続くわけではないの。
+滅びの時は、穏やかに迫りつつある。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But oh dear!
+This world won't last forever.
+The end draws near, gently but surely.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラグナロク・ノ・刻…
+私にも確かなことはわからない。
+だけど、4千年をこえると、この世界には綻びが生じ
+様々な異常現象が発生するといわれているわ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hour of Ragnarok...
+Even I don’t know exactly what that means.
+But it’s said that once the world surpasses four thousand years,
+it begins to unravel—strange phenomena start to appear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">残念ながら、この綻びを回避するすべは
+まだみつかっていないの。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadly, no way to prevent that unraveling has been found yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キミと、いつまでも冒険していたい…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to keep adventuring with you forever...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だから…
+これからは、少しゆっくり時間を進めましょう？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So...
+How about we slow things down a little from here on?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
   </si>
   <si>
     <t xml:space="preserve">薬草みーつけた！</t>
@@ -497,15 +584,6 @@
   </si>
   <si>
     <t xml:space="preserve">Get it? Color-ful!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
   </si>
   <si>
     <t xml:space="preserve">チリンチリーン！
@@ -2247,7 +2325,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2290,6 +2368,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2502,12 +2584,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3271,6 +3353,26 @@
       </c>
       <c r="G37" s="1" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3289,12 +3391,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K348"/>
+  <dimension ref="A1:K360"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I317" activeCellId="0" sqref="I317"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3313,19 +3415,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -3346,20 +3448,20 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="1" t="n">
         <f aca="false">MAX(H4:H1048576)</f>
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -3367,303 +3469,334 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H13" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H14" s="1" t="n">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H15" s="1" t="n">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H16" s="1" t="n">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H17" s="1" t="n">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H18" s="1" t="n">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H19" s="1" t="n">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H20" s="1" t="n">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H21" s="1" t="n">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J21" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="J21" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="1" t="n">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="1" t="n">
+      <c r="I37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="4"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="1" t="n">
-        <v>199</v>
-      </c>
       <c r="I38" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I39" s="4"/>
       <c r="J39" s="10"/>
-    </row>
-    <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-    </row>
-    <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="4"/>
@@ -3673,552 +3806,444 @@
     </row>
     <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H44" s="1" t="n">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H45" s="1" t="n">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H46" s="1" t="n">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H47" s="1" t="n">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H48" s="1" t="n">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>137</v>
+        <v>170</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H49" s="1" t="n">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H50" s="1" t="n">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H51" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>168</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I51" s="4"/>
+      <c r="J51" s="10"/>
     </row>
     <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>170</v>
-      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="4" t="s">
-        <v>138</v>
-      </c>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K57" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H58" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H59" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="1" t="n">
+      <c r="I70" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H71" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="1" t="n">
+      <c r="I71" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H72" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H61" s="1" t="n">
+      <c r="I72" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H73" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J61" s="4" t="s">
+      <c r="I73" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="1" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="62" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H62" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="I62" s="4" t="s">
+      <c r="I74" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H75" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="I75" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="1" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="63" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H63" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="I63" s="4" t="s">
+      <c r="I80" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H81" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="I81" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H82" s="1" t="n">
         <v>182</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H68" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="I68" s="4" t="s">
+      <c r="I82" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H83" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="J68" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H69" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H70" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H71" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="75" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
+      <c r="I83" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H77" s="1" t="n">
+    <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H89" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="I77" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J77" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H78" s="1" t="n">
+      <c r="I89" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H90" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="I78" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H79" s="1" t="n">
+      <c r="I90" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H80" s="1" t="n">
+      <c r="I91" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H92" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
+      <c r="I92" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-    </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="K84" s="4"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K85" s="4"/>
-    </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="J86" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="K86" s="4"/>
-    </row>
-    <row r="87" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="J87" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="K87" s="4"/>
-    </row>
-    <row r="88" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="J88" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K88" s="4"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="4"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-    </row>
-    <row r="91" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-    </row>
-    <row r="92" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="K92" s="4"/>
-    </row>
-    <row r="93" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="J93" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="K93" s="4"/>
-    </row>
-    <row r="94" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="J94" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="K94" s="4"/>
-    </row>
-    <row r="95" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="J95" s="10" t="s">
-        <v>216</v>
-      </c>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -4227,17 +4252,17 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>217</v>
+        <v>169</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -4246,45 +4271,55 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>219</v>
+        <v>170</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4"/>
-      <c r="B98" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
+      <c r="H98" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="s">
-        <v>93</v>
-      </c>
+    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
+      <c r="H99" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="J99" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -4293,17 +4328,17 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="1" t="n">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -4311,84 +4346,77 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="J101" s="10" t="s">
-        <v>224</v>
-      </c>
+      <c r="I101" s="7"/>
+      <c r="J101" s="10"/>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
+      <c r="B102" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="J102" s="10" t="s">
-        <v>226</v>
-      </c>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4"/>
+    <row r="103" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="J103" s="10" t="s">
-        <v>228</v>
-      </c>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4"/>
-      <c r="B104" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
+      <c r="H104" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="s">
-        <v>69</v>
-      </c>
+    <row r="105" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
+      <c r="H105" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>231</v>
+      </c>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -4397,17 +4425,17 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="1" t="n">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -4416,17 +4444,17 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="1" t="n">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -4435,17 +4463,17 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="1" t="n">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -4454,20 +4482,20 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="I109" s="11" t="s">
-        <v>233</v>
+        <v>160</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K109" s="4"/>
     </row>
     <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -4480,7 +4508,7 @@
     </row>
     <row r="111" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -4492,7 +4520,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -4501,17 +4529,17 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="I112" s="11" t="s">
-        <v>235</v>
+        <v>161</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -4520,17 +4548,17 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="I113" s="11" t="s">
-        <v>237</v>
+        <v>162</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" s="1" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -4539,17 +4567,17 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="I114" s="11" t="s">
-        <v>239</v>
+        <v>163</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -4558,40 +4586,35 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="I115" s="11" t="s">
-        <v>241</v>
+        <v>164</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K115" s="4"/>
     </row>
-    <row r="116" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="I116" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="J116" s="10" t="s">
-        <v>244</v>
-      </c>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
       <c r="K116" s="4"/>
     </row>
     <row r="117" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="A117" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -4601,7 +4624,7 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -4609,25 +4632,37 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
+      <c r="H118" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="K118" s="4"/>
     </row>
-    <row r="119" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="s">
-        <v>63</v>
-      </c>
+    <row r="119" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
+      <c r="H119" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="K119" s="4"/>
     </row>
-    <row r="120" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4636,17 +4671,17 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>245</v>
+        <v>167</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K120" s="4"/>
     </row>
-    <row r="121" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4655,52 +4690,42 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="I121" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>248</v>
+        <v>168</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="J121" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="K121" s="4"/>
     </row>
-    <row r="122" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="H122" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
       <c r="K122" s="4"/>
     </row>
-    <row r="123" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4"/>
+    <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="H123" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="I123" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>252</v>
-      </c>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
       <c r="K123" s="4"/>
     </row>
     <row r="124" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,17 +4737,17 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="I124" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="J124" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I124" s="12" t="s">
         <v>254</v>
       </c>
+      <c r="J124" s="10" t="s">
+        <v>255</v>
+      </c>
       <c r="K124" s="4"/>
     </row>
-    <row r="125" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4731,17 +4756,17 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="J125" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I125" s="12" t="s">
         <v>256</v>
       </c>
+      <c r="J125" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="K125" s="4"/>
     </row>
-    <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" s="1" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4749,25 +4774,37 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
+      <c r="H126" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>259</v>
+      </c>
       <c r="K126" s="4"/>
     </row>
-    <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4"/>
-      <c r="B127" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
+      <c r="H127" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>261</v>
+      </c>
       <c r="K127" s="4"/>
     </row>
-    <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4775,15 +4812,22 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
+      <c r="H128" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="K128" s="4"/>
     </row>
-    <row r="129" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B129" s="4"/>
+    <row r="129" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -4793,7 +4837,7 @@
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
     </row>
-    <row r="130" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4801,37 +4845,25 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="I130" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="J130" s="10" t="s">
-        <v>258</v>
-      </c>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
       <c r="K130" s="4"/>
     </row>
-    <row r="131" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4"/>
+    <row r="131" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="I131" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>260</v>
-      </c>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
       <c r="K131" s="4"/>
     </row>
-    <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4839,25 +4871,37 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
+      <c r="H132" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="K132" s="4"/>
     </row>
-    <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4"/>
-      <c r="B133" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
+      <c r="H133" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="K133" s="4"/>
     </row>
-    <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4865,25 +4909,37 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
+      <c r="H134" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="K134" s="4"/>
     </row>
-    <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="s">
-        <v>96</v>
-      </c>
+    <row r="135" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
+      <c r="H135" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="K135" s="4"/>
     </row>
-    <row r="136" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4892,17 +4948,17 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="I136" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="J136" s="10" t="s">
-        <v>262</v>
+        <v>125</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="K136" s="4"/>
     </row>
-    <row r="137" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -4911,17 +4967,17 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="I137" s="11" t="s">
-        <v>263</v>
+        <v>126</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="K137" s="4"/>
     </row>
-    <row r="138" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -4929,37 +4985,25 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="I138" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>266</v>
-      </c>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
       <c r="K138" s="4"/>
     </row>
-    <row r="139" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="B139" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="I139" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>268</v>
-      </c>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
       <c r="K139" s="4"/>
     </row>
-    <row r="140" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4967,34 +5011,22 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="I140" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>270</v>
-      </c>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
       <c r="K140" s="4"/>
     </row>
-    <row r="141" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="4"/>
+    <row r="141" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="I141" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>272</v>
-      </c>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
       <c r="K141" s="4"/>
     </row>
     <row r="142" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5006,13 +5038,13 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="I142" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>274</v>
+        <v>127</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="J142" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="K142" s="4"/>
     </row>
@@ -5025,21 +5057,19 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="I143" s="13" t="s">
-        <v>275</v>
+        <v>128</v>
+      </c>
+      <c r="I143" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K143" s="4"/>
     </row>
     <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4"/>
-      <c r="B144" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -5051,7 +5081,9 @@
     </row>
     <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
+      <c r="B145" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -5062,9 +5094,7 @@
       <c r="K145" s="4"/>
     </row>
     <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -5075,23 +5105,18 @@
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
     </row>
-    <row r="147" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4"/>
+    <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="I147" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="J147" s="10" t="s">
-        <v>278</v>
-      </c>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
       <c r="K147" s="4"/>
     </row>
     <row r="148" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,17 +5128,17 @@
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="I148" s="11" t="s">
-        <v>279</v>
+        <v>129</v>
+      </c>
+      <c r="I148" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="J148" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K148" s="4"/>
     </row>
-    <row r="149" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -5122,17 +5147,17 @@
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="I149" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="J149" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I149" s="12" t="s">
         <v>282</v>
       </c>
+      <c r="J149" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="K149" s="4"/>
     </row>
-    <row r="150" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -5141,13 +5166,13 @@
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="I150" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="J150" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I150" s="12" t="s">
         <v>284</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="K150" s="4"/>
     </row>
@@ -5160,13 +5185,13 @@
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="I151" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J151" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I151" s="12" t="s">
         <v>286</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="K151" s="4"/>
     </row>
@@ -5179,45 +5204,55 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="I152" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="J152" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I152" s="12" t="s">
         <v>288</v>
       </c>
+      <c r="J152" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="K152" s="4"/>
     </row>
-    <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4"/>
-      <c r="B153" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
+      <c r="H153" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="K153" s="4"/>
     </row>
-    <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4" t="s">
-        <v>87</v>
-      </c>
+    <row r="154" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
+      <c r="H154" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="I154" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="K154" s="4"/>
     </row>
-    <row r="155" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5226,36 +5261,31 @@
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="I155" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="J155" s="10" t="s">
-        <v>290</v>
+        <v>136</v>
+      </c>
+      <c r="I155" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="K155" s="4"/>
     </row>
-    <row r="156" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
+      <c r="B156" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="I156" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="J156" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
       <c r="K156" s="4"/>
     </row>
-    <row r="157" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5263,37 +5293,25 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="I157" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="J157" s="4" t="s">
-        <v>294</v>
-      </c>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4"/>
+    <row r="158" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="I158" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J158" s="4" t="s">
-        <v>296</v>
-      </c>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" s="1" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -5302,17 +5320,17 @@
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="I159" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="J159" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="J159" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5320,11 +5338,18 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
+      <c r="H160" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J160" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="K160" s="4"/>
     </row>
-    <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -5332,39 +5357,56 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
+      <c r="H161" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="J161" s="10" t="s">
+        <v>301</v>
+      </c>
       <c r="K161" s="4"/>
     </row>
-    <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4"/>
-      <c r="B162" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
+      <c r="H162" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="J162" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="K162" s="4"/>
     </row>
-    <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="4" t="s">
-        <v>39</v>
-      </c>
+    <row r="163" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
+      <c r="H163" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="J163" s="10" t="s">
+        <v>305</v>
+      </c>
       <c r="K163" s="4"/>
     </row>
-    <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5373,55 +5415,45 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="I164" s="4" t="s">
-        <v>299</v>
+        <v>142</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>306</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K164" s="4"/>
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
+      <c r="B165" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="I165" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>302</v>
-      </c>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
       <c r="K165" s="4"/>
     </row>
-    <row r="166" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4"/>
+    <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="J166" s="4" t="s">
-        <v>304</v>
-      </c>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
       <c r="K166" s="4"/>
     </row>
-    <row r="167" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -5430,17 +5462,17 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="J167" s="4" t="s">
-        <v>306</v>
+        <v>143</v>
+      </c>
+      <c r="I167" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="J167" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="K167" s="4"/>
     </row>
-    <row r="168" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -5449,17 +5481,17 @@
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>307</v>
+        <v>144</v>
+      </c>
+      <c r="I168" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K168" s="4"/>
     </row>
-    <row r="169" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -5468,17 +5500,17 @@
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>309</v>
+        <v>145</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K169" s="4"/>
     </row>
-    <row r="170" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -5487,1500 +5519,1704 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>311</v>
+        <v>146</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K170" s="4"/>
     </row>
-    <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" s="1" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4"/>
-      <c r="B171" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
+      <c r="H171" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>317</v>
+      </c>
       <c r="K171" s="4"/>
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4"/>
       <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
     </row>
     <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+    </row>
+    <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+    </row>
+    <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+    </row>
+    <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J176" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="K176" s="4"/>
+    </row>
+    <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="K177" s="4"/>
+    </row>
+    <row r="178" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K178" s="4"/>
+    </row>
+    <row r="179" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="K179" s="4"/>
+    </row>
+    <row r="180" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="K180" s="4"/>
+    </row>
+    <row r="181" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="K181" s="4"/>
+    </row>
+    <row r="182" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K182" s="4"/>
+    </row>
+    <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+    </row>
+    <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="4"/>
+    </row>
+    <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H175" s="1" t="n">
+    <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H187" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="I175" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J175" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="176" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H176" s="1" t="n">
+      <c r="I187" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="J187" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="188" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H188" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="I176" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="J176" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="177" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H177" s="1" t="n">
+      <c r="I188" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="189" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H189" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="I177" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="J177" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="178" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H178" s="1" t="n">
+      <c r="I189" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="190" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H190" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="I178" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="J178" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="179" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H179" s="1" t="n">
+      <c r="I190" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="191" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H191" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="I179" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="J179" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4" t="s">
+      <c r="I191" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H183" s="1" t="n">
+    <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H195" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="I183" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="J183" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="184" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H184" s="1" t="n">
+      <c r="I195" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J195" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="196" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H196" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="I184" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="J184" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="185" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H185" s="1" t="n">
+      <c r="I196" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J196" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="197" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H197" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="I185" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="J185" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="186" s="1" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H186" s="1" t="n">
+      <c r="I197" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J197" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="198" s="1" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H198" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="I186" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="J186" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="187" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H187" s="1" t="n">
+      <c r="I198" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J198" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="199" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H199" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="I187" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="J187" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H188" s="1" t="n">
+      <c r="I199" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J199" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H200" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="I188" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J188" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="K188" s="1"/>
-    </row>
-    <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="4"/>
-    </row>
-    <row r="191" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="4" t="s">
+      <c r="I200" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="J200" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="K200" s="1"/>
+    </row>
+    <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="202" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="4"/>
+    </row>
+    <row r="203" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H193" s="1" t="n">
+    <row r="204" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H205" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="I193" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="J193" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="194" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H194" s="1" t="n">
+      <c r="I205" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J205" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="206" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H206" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="I194" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="J194" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="195" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H195" s="1" t="n">
+      <c r="I206" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="207" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H207" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="I195" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="J195" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="196" s="1" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H196" s="1" t="n">
+      <c r="I207" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J207" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="208" s="1" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H208" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="I196" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J196" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="197" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H197" s="1" t="n">
+      <c r="I208" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J208" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="209" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H209" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I197" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J197" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H198" s="1" t="n">
+      <c r="I209" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J209" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="210" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H210" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="I198" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="J198" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="199" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H199" s="1" t="n">
+      <c r="I210" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="J210" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="211" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H211" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="I199" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J199" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="200" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H200" s="1" t="n">
+      <c r="I211" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H212" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="I200" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="J200" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H201" s="1" t="n">
+      <c r="I212" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H213" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="I201" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="J201" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="K201" s="1"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K202" s="1"/>
-    </row>
-    <row r="203" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="s">
+      <c r="I213" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="K213" s="1"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K214" s="1"/>
+    </row>
+    <row r="215" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H208" s="1" t="n">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H220" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="I208" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="J208" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H209" s="1" t="n">
+      <c r="I220" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J220" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H221" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="I209" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="J209" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H210" s="1" t="n">
+      <c r="I221" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="J221" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H222" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="I210" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J210" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I211" s="4"/>
-      <c r="J211" s="10"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I212" s="4"/>
-      <c r="J212" s="10"/>
-    </row>
-    <row r="213" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H213" s="1" t="n">
+      <c r="I222" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="J222" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I223" s="4"/>
+      <c r="J223" s="10"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I224" s="4"/>
+      <c r="J224" s="10"/>
+    </row>
+    <row r="225" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H225" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="I213" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="J213" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="214" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H214" s="1" t="n">
+      <c r="I225" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="226" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H226" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="I214" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J214" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H215" s="1" t="n">
+      <c r="I226" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J226" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H227" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I215" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="J215" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H216" s="1" t="n">
+      <c r="I227" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="J227" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H228" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="I216" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J216" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="K216" s="1"/>
-    </row>
-    <row r="217" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H217" s="1" t="n">
+      <c r="I228" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J228" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K228" s="1"/>
+    </row>
+    <row r="229" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H229" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="I217" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="J217" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H218" s="1" t="n">
+      <c r="I229" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H230" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="I218" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="J218" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J219" s="4"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J220" s="4"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H221" s="1" t="n">
+      <c r="I230" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J231" s="4"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J232" s="4"/>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H233" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="I221" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="J221" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="222" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="223" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="4" t="s">
+      <c r="I233" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J233" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="234" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="235" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="236" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="225" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H225" s="1" t="n">
+    <row r="237" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H237" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="I225" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="J225" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="226" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H226" s="1" t="n">
+      <c r="I237" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J237" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="238" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H238" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="I226" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="J226" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="227" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H227" s="1" t="n">
+      <c r="I238" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="239" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H239" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="I227" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="J227" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="228" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H228" s="1" t="n">
+      <c r="I239" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="240" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H240" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="I228" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="J228" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="229" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H229" s="1" t="n">
+      <c r="I240" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="J240" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="241" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H241" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="I229" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="230" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H230" s="1" t="n">
+      <c r="I241" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="242" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H242" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="I230" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J230" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="231" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H231" s="1" t="n">
+      <c r="I242" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J242" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="243" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H243" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="I231" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="J231" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="232" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I232" s="4"/>
-      <c r="J232" s="4"/>
-    </row>
-    <row r="233" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="234" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="4" t="s">
+      <c r="I243" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J243" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="244" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I244" s="4"/>
+      <c r="J244" s="4"/>
+    </row>
+    <row r="245" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="246" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="235" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H235" s="1" t="n">
+    <row r="247" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H247" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="I235" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="J235" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="236" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H236" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="I236" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="J236" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="237" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H237" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="I237" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="J237" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="238" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H238" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="I238" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="J238" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="239" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H239" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="I239" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="J239" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="240" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I240" s="4"/>
-      <c r="J240" s="4"/>
-    </row>
-    <row r="241" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="242" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="4"/>
-    </row>
-    <row r="243" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="244" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H244" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="I244" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J244" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="245" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H245" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="I245" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="J245" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="246" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H246" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="I246" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="J246" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="247" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H247" s="1" t="n">
-        <v>82</v>
-      </c>
       <c r="I247" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="J247" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
+      </c>
+      <c r="J247" s="10" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="248" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H248" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="I248" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="J248" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="249" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H249" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="J249" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="250" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H250" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="I250" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="J250" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="251" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H251" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="J251" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="252" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I252" s="4"/>
+      <c r="J252" s="4"/>
+    </row>
+    <row r="253" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="254" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="4"/>
+    </row>
+    <row r="255" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="256" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H256" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J256" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="257" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H257" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="I257" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="J257" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="258" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H258" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="I258" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J258" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="259" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H259" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="I259" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J259" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="260" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H260" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="I248" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="J248" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="249" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H249" s="1" t="n">
+      <c r="I260" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="J260" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="261" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H261" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="I249" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="J249" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I250" s="4"/>
-      <c r="J250" s="4"/>
-      <c r="K250" s="1"/>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K251" s="1"/>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="4"/>
-      <c r="K252" s="1"/>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="4" t="s">
+      <c r="I261" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="J261" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I262" s="4"/>
+      <c r="J262" s="4"/>
+      <c r="K262" s="1"/>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K263" s="1"/>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="4"/>
+      <c r="K264" s="1"/>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K253" s="1"/>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H254" s="1" t="n">
+      <c r="K265" s="1"/>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H266" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="I254" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J254" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K254" s="1"/>
-    </row>
-    <row r="255" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H255" s="1" t="n">
+      <c r="I266" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J266" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K266" s="1"/>
+    </row>
+    <row r="267" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H267" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="I255" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="J255" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="K255" s="1"/>
-    </row>
-    <row r="256" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H256" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="I256" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="J256" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="K256" s="1"/>
-    </row>
-    <row r="257" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H257" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="I257" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="J257" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="K257" s="1"/>
-    </row>
-    <row r="258" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H258" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="I258" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="J258" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="K258" s="1"/>
-    </row>
-    <row r="259" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H259" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="I259" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="J259" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="K259" s="1"/>
-    </row>
-    <row r="260" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H260" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="I260" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="J260" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="K260" s="1"/>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H261" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="I261" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J261" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="K261" s="1"/>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K262" s="1"/>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K264" s="1"/>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H265" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="I265" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="J265" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="K265" s="1"/>
-    </row>
-    <row r="266" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H266" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="I266" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="J266" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="K266" s="1"/>
-    </row>
-    <row r="267" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H267" s="1" t="n">
-        <v>76</v>
-      </c>
       <c r="I267" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K267" s="1"/>
     </row>
     <row r="268" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H268" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="I268" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="J268" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K268" s="1"/>
+    </row>
+    <row r="269" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H269" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="I269" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="J269" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="K269" s="1"/>
+    </row>
+    <row r="270" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H270" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="I270" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="J270" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="K270" s="1"/>
+    </row>
+    <row r="271" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H271" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="I271" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="J271" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="K271" s="1"/>
+    </row>
+    <row r="272" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H272" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="I272" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J272" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="K272" s="1"/>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H273" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="I273" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="K273" s="1"/>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K274" s="1"/>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H277" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="I277" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="J277" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="K277" s="1"/>
+    </row>
+    <row r="278" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H278" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="I278" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J278" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K278" s="1"/>
+    </row>
+    <row r="279" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H279" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="I279" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J279" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="K279" s="1"/>
+    </row>
+    <row r="280" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H280" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="I268" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="J268" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="K268" s="1"/>
-    </row>
-    <row r="269" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H269" s="1" t="n">
+      <c r="I280" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="J280" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="K280" s="1"/>
+    </row>
+    <row r="281" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H281" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="I269" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="J269" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K269" s="1"/>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I270" s="4"/>
-      <c r="J270" s="4"/>
-      <c r="K270" s="1"/>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I271" s="4"/>
-      <c r="J271" s="4"/>
-      <c r="K271" s="1"/>
-    </row>
-    <row r="272" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="273" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="4" t="s">
+      <c r="I281" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J281" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="K281" s="1"/>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I282" s="4"/>
+      <c r="J282" s="4"/>
+      <c r="K282" s="1"/>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I283" s="4"/>
+      <c r="J283" s="4"/>
+      <c r="K283" s="1"/>
+    </row>
+    <row r="284" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B284" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="285" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="286" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="275" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H275" s="1" t="n">
+    <row r="287" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H287" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="I275" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="J275" s="10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="276" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H276" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="I276" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J276" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="277" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H277" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="I277" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="J277" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="278" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H278" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="I278" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="J278" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="279" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H279" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="I279" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="J279" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="280" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H280" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="I280" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="J280" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="281" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H281" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="I281" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="J281" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="282" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H282" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="I282" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="J282" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="283" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="284" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="285" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H285" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="I285" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="J285" s="10" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="286" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H286" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="I286" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="J286" s="4" t="s">
+      <c r="I287" s="4" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="287" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H287" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="I287" s="4" t="s">
+      <c r="J287" s="10" t="s">
         <v>449</v>
-      </c>
-      <c r="J287" s="4" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="288" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H288" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="I288" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J288" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="289" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H289" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="I289" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="J289" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="290" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H290" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="I290" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="J290" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="291" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H291" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="I291" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="J291" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="292" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H292" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="I292" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J292" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="293" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H293" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="I293" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="J293" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="294" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H294" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="I294" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="J294" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="295" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="296" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="297" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H297" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="I297" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="J297" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="298" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H298" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="I298" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="J298" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="299" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H299" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="I299" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J299" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="300" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H300" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="I288" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="J288" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="289" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H289" s="1" t="n">
+      <c r="I300" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J300" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="301" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H301" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="I289" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="J289" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H290" s="1" t="n">
+      <c r="I301" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="J301" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H302" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="I290" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="J290" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K290" s="1"/>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K291" s="1"/>
-    </row>
-    <row r="292" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="295" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H295" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="I295" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="J295" s="10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="296" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H296" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="I296" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="J296" s="10" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="297" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H297" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="I297" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="J297" s="10" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="298" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H298" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="I298" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="J298" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="299" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H299" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="I299" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J299" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="300" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H300" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="I300" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="J300" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H301" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="I301" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J301" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K301" s="1"/>
-    </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="4" t="s">
-        <v>138</v>
+      <c r="I302" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J302" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="K302" s="1"/>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B303" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K303" s="1"/>
     </row>
     <row r="304" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="305" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="306" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="307" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H307" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="I307" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J307" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="308" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H308" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="I308" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="J308" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="309" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H309" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="I309" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="J309" s="10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="310" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H310" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="I310" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J310" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="311" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H311" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="I311" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J311" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="312" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H312" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="I312" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="J312" s="10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H313" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="I313" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J313" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K313" s="1"/>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B314" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K314" s="1"/>
+    </row>
+    <row r="316" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="317" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="318" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="307" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H307" s="1" t="n">
+    <row r="319" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H319" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="I307" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="J307" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="308" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H308" s="1" t="n">
+      <c r="I319" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="J319" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="320" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H320" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="I308" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="J308" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="309" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H309" s="1" t="n">
+      <c r="I320" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="J320" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="321" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H321" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="I309" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="J309" s="4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="310" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H310" s="1" t="n">
+      <c r="I321" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J321" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="322" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H322" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="I310" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="J310" s="10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="311" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H311" s="1" t="n">
+      <c r="I322" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="J322" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="323" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H323" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="I311" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="J311" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H312" s="1" t="n">
+      <c r="I323" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J323" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H324" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="I312" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="J312" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="K312" s="1"/>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K313" s="1"/>
-    </row>
-    <row r="314" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="315" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="316" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="317" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H317" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="J317" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="318" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H318" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="J318" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="319" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H319" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I319" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="J319" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="320" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H320" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I320" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="J320" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="321" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H321" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="I321" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="J321" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="322" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H322" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="I322" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="J322" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="323" s="1" customFormat="true" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H323" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="I323" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="J323" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H324" s="1" t="n">
-        <v>7</v>
-      </c>
       <c r="I324" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J324" s="10" t="s">
-        <v>170</v>
+        <v>496</v>
+      </c>
+      <c r="J324" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="K324" s="1"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K325" s="1"/>
     </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="1" t="s">
+    <row r="326" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="327" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="328" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="329" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H329" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I329" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="J329" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="330" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H330" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I330" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="J330" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="331" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H331" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I331" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="J331" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="332" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H332" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I332" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="J332" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="333" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H333" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="I333" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="J333" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="334" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H334" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I334" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="J334" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="335" s="1" customFormat="true" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H335" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="I335" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="J335" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H336" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I336" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J336" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K336" s="1"/>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B337" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K337" s="1"/>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D328" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H329" s="1" t="n">
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D340" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H341" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I329" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="J329" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H330" s="1" t="n">
+      <c r="I341" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="J341" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H342" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="I330" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="J330" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B331" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H331" s="1" t="n">
+      <c r="I342" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="J342" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B343" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H343" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I331" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="J331" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="H334" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="I334" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="J334" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B335" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H335" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="I335" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="J335" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B336" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H336" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="I336" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J336" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B337" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H337" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="I337" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J337" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B338" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="H342" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="I342" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="J342" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B343" s="1" t="s">
-        <v>138</v>
+      <c r="I343" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="J343" s="4" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
+      </c>
+      <c r="H346" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B347" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="H347" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="1" t="s">
-        <v>138</v>
+        <v>523</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H348" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B349" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H349" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B350" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H354" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B355" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H359" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B360" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/JP (Exclude Game)/Dialog/Drama/_tutorial.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/_tutorial.xlsx
@@ -1145,7 +1145,7 @@
   </si>
   <si>
     <t xml:space="preserve">With this policy, trash will mostly disappear.
-However, since it lowers the public morale,
+However, since it lowers the public morality,
 you'll eventually want to switch to a better waste management solution.</t>
   </si>
   <si>
@@ -1155,7 +1155,7 @@
   </si>
   <si>
     <t xml:space="preserve">Putting up garbage dump signs and placing garbage containers
-will encourage residents to dispose of trash according to the public morale.</t>
+will encourage residents to dispose of trash according to the public morality.</t>
   </si>
   <si>
     <t xml:space="preserve">それに、掃除をしてくれる住民がいれば
@@ -3393,10 +3393,10 @@
   </sheetPr>
   <dimension ref="A1:K360"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="J155" activeCellId="0" sqref="J155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/JP (Exclude Game)/Dialog/Drama/_tutorial.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/_tutorial.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="544">
   <si>
     <t xml:space="preserve">version</t>
   </si>
@@ -1099,6 +1099,34 @@
   <si>
     <t xml:space="preserve">Tinkle-tinkle!
 Your beginner adventurer period is over!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nerun_nadenade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おっ、キミってば、一度も死ななかったのね？
+えらいえらい。はい、な～でな～で！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, you didn’t die even once, huh?
+Good, good. Come here, let me give you some head pats!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nerun_nadenade2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この期間にキミが死んだ回数は実に#1回…
+一体、何をしていたの？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times you died during this period is actually #1...
+What on earth were you doing? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">さすがの私も、キミみたいな冒険者は初めてよ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even for me, I’ve never seen an adventurer quite like you...</t>
   </si>
   <si>
     <t xml:space="preserve">これからは死んだら
@@ -3391,12 +3419,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K360"/>
+  <dimension ref="A1:K363"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="J155" activeCellId="0" sqref="J155"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I145" activeCellId="0" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3448,7 +3476,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="1" t="n">
         <f aca="false">MAX(H4:H1048576)</f>
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,49 +5079,67 @@
     <row r="143" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+      <c r="C143" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="I143" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="J143" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I143" s="12" t="s">
         <v>279</v>
       </c>
+      <c r="J143" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="K143" s="4"/>
     </row>
-    <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+      <c r="C144" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
+      <c r="H144" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="J144" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="K144" s="4"/>
     </row>
-    <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4"/>
-      <c r="B145" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
+      <c r="H145" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="J145" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="K145" s="4"/>
     </row>
-    <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -5101,14 +5147,19 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
+      <c r="H146" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="I146" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="K146" s="4"/>
     </row>
     <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -5119,26 +5170,21 @@
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
     </row>
-    <row r="148" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
+      <c r="B148" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="I148" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="J148" s="10" t="s">
-        <v>281</v>
-      </c>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
       <c r="K148" s="4"/>
     </row>
-    <row r="149" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -5146,37 +5192,25 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="I149" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>283</v>
-      </c>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
       <c r="K149" s="4"/>
     </row>
-    <row r="150" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4"/>
+    <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="I150" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
       <c r="K150" s="4"/>
     </row>
-    <row r="151" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -5185,17 +5219,17 @@
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="1" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="J151" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="K151" s="4"/>
     </row>
-    <row r="152" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -5204,17 +5238,17 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="1" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K152" s="4"/>
     </row>
-    <row r="153" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5223,13 +5257,13 @@
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="1" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K153" s="4"/>
     </row>
@@ -5242,17 +5276,17 @@
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="I154" s="14" t="s">
-        <v>292</v>
+        <v>132</v>
+      </c>
+      <c r="I154" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K154" s="4"/>
     </row>
-    <row r="155" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5261,31 +5295,36 @@
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="I155" s="14" t="s">
-        <v>294</v>
+        <v>133</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K155" s="4"/>
     </row>
-    <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4"/>
-      <c r="B156" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
+      <c r="H156" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="I156" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="K156" s="4"/>
     </row>
-    <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5293,44 +5332,51 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
+      <c r="H157" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="I157" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4" t="s">
-        <v>18</v>
-      </c>
+    <row r="158" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
+      <c r="H158" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="I158" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
+      <c r="B159" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="H159" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="I159" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="J159" s="10" t="s">
-        <v>297</v>
-      </c>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5338,37 +5384,25 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="I160" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J160" s="10" t="s">
-        <v>299</v>
-      </c>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
       <c r="K160" s="4"/>
     </row>
-    <row r="161" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4"/>
+    <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="I161" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="J161" s="10" t="s">
-        <v>301</v>
-      </c>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
       <c r="K161" s="4"/>
     </row>
-    <row r="162" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -5377,17 +5411,17 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="1" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J162" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K162" s="4"/>
     </row>
-    <row r="163" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -5396,17 +5430,17 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="1" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J163" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K163" s="4"/>
     </row>
-    <row r="164" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5415,45 +5449,55 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="1" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K164" s="4"/>
     </row>
-    <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4"/>
-      <c r="B165" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
+      <c r="H165" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J165" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="K165" s="4"/>
     </row>
-    <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4" t="s">
-        <v>87</v>
-      </c>
+    <row r="166" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="I166" s="4"/>
-      <c r="J166" s="4"/>
+      <c r="H166" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="J166" s="10" t="s">
+        <v>313</v>
+      </c>
       <c r="K166" s="4"/>
     </row>
-    <row r="167" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -5462,55 +5506,45 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K167" s="4"/>
     </row>
-    <row r="168" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
+      <c r="B168" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
-      <c r="H168" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="I168" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="J168" s="4" t="s">
-        <v>311</v>
-      </c>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
       <c r="K168" s="4"/>
     </row>
-    <row r="169" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4"/>
+    <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
-      <c r="H169" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="I169" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="J169" s="4" t="s">
-        <v>313</v>
-      </c>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
       <c r="K169" s="4"/>
     </row>
-    <row r="170" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -5519,17 +5553,17 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="1" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="J170" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="J170" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="K170" s="4"/>
     </row>
-    <row r="171" s="1" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -5538,17 +5572,17 @@
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="1" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K171" s="4"/>
     </row>
-    <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -5556,11 +5590,18 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
+      <c r="H172" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="I172" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="K172" s="4"/>
     </row>
-    <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -5568,28 +5609,38 @@
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
+      <c r="H173" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="I173" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>323</v>
+      </c>
       <c r="K173" s="4"/>
     </row>
-    <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" s="1" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4"/>
-      <c r="B174" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
+      <c r="H174" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="I174" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="J174" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="K174" s="4"/>
     </row>
     <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -5608,56 +5659,39 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
-      <c r="H176" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="I176" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="J176" s="10" t="s">
-        <v>319</v>
-      </c>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
       <c r="K176" s="4"/>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
+      <c r="B177" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
-      <c r="H177" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="I177" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="J177" s="4" t="s">
-        <v>321</v>
-      </c>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
       <c r="K177" s="4"/>
     </row>
-    <row r="178" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4"/>
+    <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
-      <c r="H178" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J178" s="4" t="s">
-        <v>323</v>
-      </c>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
       <c r="K178" s="4"/>
     </row>
-    <row r="179" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -5666,17 +5700,17 @@
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="1" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="J179" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="J179" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="K179" s="4"/>
     </row>
-    <row r="180" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -5685,13 +5719,13 @@
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="1" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K180" s="4"/>
     </row>
@@ -5704,17 +5738,17 @@
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="1" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K181" s="4"/>
     </row>
-    <row r="182" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -5723,1446 +5757,1452 @@
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="1" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K182" s="4"/>
     </row>
-    <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4"/>
-      <c r="B183" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
+      <c r="H183" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="K183" s="4"/>
     </row>
-    <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="4"/>
       <c r="B184" s="4"/>
-    </row>
-    <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4" t="s">
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="K184" s="4"/>
+    </row>
+    <row r="185" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="K185" s="4"/>
+    </row>
+    <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+    </row>
+    <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="4"/>
+    </row>
+    <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H187" s="1" t="n">
+    <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H190" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="I187" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="J187" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="188" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H188" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="I188" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="J188" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="189" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H189" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="I189" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J189" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="190" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H190" s="1" t="n">
-        <v>108</v>
-      </c>
       <c r="I190" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="J190" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="J190" s="10" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H191" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="192" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H192" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H193" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="194" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H194" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="I191" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="J191" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="4" t="s">
+      <c r="I194" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="195" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="4" t="s">
+    <row r="196" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H195" s="1" t="n">
+    <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H198" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="I195" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="J195" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="196" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H196" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="I196" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="J196" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="197" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H197" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="I197" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="J197" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="198" s="1" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H198" s="1" t="n">
-        <v>113</v>
-      </c>
       <c r="I198" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J198" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H199" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="I199" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="J199" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="200" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H200" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J200" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="201" s="1" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H201" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J201" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="202" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H202" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="I199" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="J199" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H200" s="1" t="n">
+      <c r="I202" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J202" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H203" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="I200" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="J200" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="K200" s="1"/>
-    </row>
-    <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="4" t="s">
+      <c r="I203" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J203" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="K203" s="1"/>
+    </row>
+    <row r="204" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="202" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="4"/>
-    </row>
-    <row r="203" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="4" t="s">
+    <row r="205" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="4"/>
+    </row>
+    <row r="206" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="204" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H205" s="1" t="n">
+    <row r="207" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="208" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H208" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="I205" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="J205" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="206" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H206" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="I206" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="J206" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="207" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H207" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="I207" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J207" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="208" s="1" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H208" s="1" t="n">
-        <v>29</v>
-      </c>
       <c r="I208" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="J208" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="J208" s="10" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="209" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H209" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I209" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="J209" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="210" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H210" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="I210" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J210" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="211" s="1" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H211" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="I211" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H212" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I209" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J209" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="210" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H210" s="1" t="n">
+      <c r="I212" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="213" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H213" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="I210" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="J210" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="211" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H211" s="1" t="n">
+      <c r="I213" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="214" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H214" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="I211" s="4" t="s">
+      <c r="I214" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J211" s="4" t="s">
+      <c r="J214" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="212" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H212" s="1" t="n">
+    <row r="215" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H215" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="I212" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J212" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H213" s="1" t="n">
+      <c r="I215" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H216" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="I213" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="J213" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="K213" s="1"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="4" t="s">
+      <c r="I216" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="J216" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K216" s="1"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K214" s="1"/>
-    </row>
-    <row r="215" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="s">
+      <c r="K217" s="1"/>
+    </row>
+    <row r="218" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H220" s="1" t="n">
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H223" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="I220" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="J220" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H221" s="1" t="n">
+      <c r="I223" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="J223" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H224" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="I221" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="J221" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H222" s="1" t="n">
+      <c r="I224" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J224" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H225" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="I222" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="J222" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I223" s="4"/>
-      <c r="J223" s="10"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I224" s="4"/>
-      <c r="J224" s="10"/>
-    </row>
-    <row r="225" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H225" s="1" t="n">
-        <v>38</v>
-      </c>
       <c r="I225" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="J225" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J225" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I226" s="4"/>
+      <c r="J226" s="10"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="226" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H226" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="I226" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="J226" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H227" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="I227" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="J227" s="4" t="s">
-        <v>384</v>
-      </c>
+      <c r="I227" s="4"/>
+      <c r="J227" s="10"/>
     </row>
     <row r="228" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H228" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J228" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="229" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H229" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H230" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="I230" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H231" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="I228" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="J228" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="K228" s="1"/>
-    </row>
-    <row r="229" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H229" s="1" t="n">
+      <c r="I231" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J231" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="K231" s="1"/>
+    </row>
+    <row r="232" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H232" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="I229" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H230" s="1" t="n">
+      <c r="I232" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J232" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H233" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="I230" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="J230" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J231" s="4"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J232" s="4"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H233" s="1" t="n">
-        <v>44</v>
-      </c>
       <c r="I233" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="J233" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="234" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>397</v>
+      </c>
+      <c r="J233" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="235" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="4" t="s">
+      <c r="J234" s="4"/>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J235" s="4"/>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H236" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="I236" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="J236" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="237" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="238" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="237" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H237" s="1" t="n">
+    <row r="240" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H240" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="I237" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="J237" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="238" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H238" s="1" t="n">
+      <c r="I240" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J240" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="241" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H241" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="I238" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="J238" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="239" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H239" s="1" t="n">
+      <c r="I241" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="242" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H242" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="I239" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="J239" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="240" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H240" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="I240" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="J240" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="241" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H241" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="I241" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J241" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="242" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H242" s="1" t="n">
-        <v>98</v>
-      </c>
       <c r="I242" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="243" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H243" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="J243" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="244" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H244" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="I244" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J244" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="245" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H245" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="I245" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="J245" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="246" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H246" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="I243" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="J243" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="244" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I244" s="4"/>
-      <c r="J244" s="4"/>
-    </row>
-    <row r="245" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="4" t="s">
+      <c r="I246" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="J246" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="247" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I247" s="4"/>
+      <c r="J247" s="4"/>
+    </row>
+    <row r="248" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="246" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="4" t="s">
+    <row r="249" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="247" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H247" s="1" t="n">
+    <row r="250" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H250" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="I247" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="J247" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="248" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H248" s="1" t="n">
+      <c r="I250" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="J250" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="251" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H251" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="I248" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="J248" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="249" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H249" s="1" t="n">
+      <c r="I251" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="J251" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="252" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H252" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="I249" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="J249" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="250" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H250" s="1" t="n">
+      <c r="I252" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J252" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="253" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H253" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="I250" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="J250" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="251" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H251" s="1" t="n">
+      <c r="I253" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J253" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="254" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H254" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="I251" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="J251" s="4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="252" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I252" s="4"/>
-      <c r="J252" s="4"/>
-    </row>
-    <row r="253" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="4" t="s">
+      <c r="I254" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="J254" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="255" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I255" s="4"/>
+      <c r="J255" s="4"/>
+    </row>
+    <row r="256" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="254" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="4"/>
-    </row>
-    <row r="255" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="4" t="s">
+    <row r="257" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="4"/>
+    </row>
+    <row r="258" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="256" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H256" s="1" t="n">
+    <row r="259" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H259" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="I256" s="4" t="s">
+      <c r="I259" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J256" s="10" t="s">
+      <c r="J259" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="257" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H257" s="1" t="n">
+    <row r="260" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H260" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="I257" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="J257" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="258" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H258" s="1" t="n">
+      <c r="I260" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="J260" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="261" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H261" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="I258" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="J258" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="259" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H259" s="1" t="n">
+      <c r="I261" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="J261" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="262" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H262" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="I259" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="J259" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="260" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H260" s="1" t="n">
+      <c r="I262" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="J262" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="263" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H263" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="I260" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="J260" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="261" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H261" s="1" t="n">
+      <c r="I263" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="J263" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="264" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H264" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="I261" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="J261" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I262" s="4"/>
-      <c r="J262" s="4"/>
-      <c r="K262" s="1"/>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="4" t="s">
+      <c r="I264" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="J264" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I265" s="4"/>
+      <c r="J265" s="4"/>
+      <c r="K265" s="1"/>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K263" s="1"/>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="4"/>
-      <c r="K264" s="1"/>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="4" t="s">
+      <c r="K266" s="1"/>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="4"/>
+      <c r="K267" s="1"/>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K265" s="1"/>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H266" s="1" t="n">
+      <c r="K268" s="1"/>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H269" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="I266" s="4" t="s">
+      <c r="I269" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J266" s="10" t="s">
+      <c r="J269" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="K266" s="1"/>
-    </row>
-    <row r="267" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H267" s="1" t="n">
+      <c r="K269" s="1"/>
+    </row>
+    <row r="270" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H270" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="I267" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="J267" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="K267" s="1"/>
-    </row>
-    <row r="268" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H268" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="I268" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="J268" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K268" s="1"/>
-    </row>
-    <row r="269" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H269" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="I269" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="J269" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="K269" s="1"/>
-    </row>
-    <row r="270" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H270" s="1" t="n">
-        <v>89</v>
-      </c>
       <c r="I270" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J270" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K270" s="1"/>
     </row>
     <row r="271" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H271" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="I271" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J271" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="K271" s="1"/>
+    </row>
+    <row r="272" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H272" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="I272" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="J272" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="K272" s="1"/>
+    </row>
+    <row r="273" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H273" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="I273" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="K273" s="1"/>
+    </row>
+    <row r="274" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H274" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="I271" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="J271" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="K271" s="1"/>
-    </row>
-    <row r="272" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H272" s="1" t="n">
+      <c r="I274" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="J274" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="K274" s="1"/>
+    </row>
+    <row r="275" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H275" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="I272" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="J272" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="K272" s="1"/>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H273" s="1" t="n">
+      <c r="I275" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="J275" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="K275" s="1"/>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H276" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="I273" s="4" t="s">
+      <c r="I276" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J273" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="K273" s="1"/>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="4" t="s">
+      <c r="J276" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B277" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K274" s="1"/>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="4" t="s">
+      <c r="K277" s="1"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K276" s="1"/>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H277" s="1" t="n">
+      <c r="K279" s="1"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H280" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="I277" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="J277" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="K277" s="1"/>
-    </row>
-    <row r="278" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H278" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="I278" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="J278" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="K278" s="1"/>
-    </row>
-    <row r="279" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H279" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="I279" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="J279" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="K279" s="1"/>
-    </row>
-    <row r="280" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H280" s="1" t="n">
-        <v>77</v>
-      </c>
       <c r="I280" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="J280" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
+      </c>
+      <c r="J280" s="10" t="s">
+        <v>447</v>
       </c>
       <c r="K280" s="1"/>
     </row>
     <row r="281" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H281" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="I281" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="J281" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="K281" s="1"/>
+    </row>
+    <row r="282" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H282" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="I282" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J282" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K282" s="1"/>
+    </row>
+    <row r="283" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H283" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="I283" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="J283" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="K283" s="1"/>
+    </row>
+    <row r="284" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H284" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="I281" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="J281" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="K281" s="1"/>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I282" s="4"/>
-      <c r="J282" s="4"/>
-      <c r="K282" s="1"/>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I283" s="4"/>
-      <c r="J283" s="4"/>
-      <c r="K283" s="1"/>
-    </row>
-    <row r="284" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="4" t="s">
+      <c r="I284" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="J284" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K284" s="1"/>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I285" s="4"/>
+      <c r="J285" s="4"/>
+      <c r="K285" s="1"/>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I286" s="4"/>
+      <c r="J286" s="4"/>
+      <c r="K286" s="1"/>
+    </row>
+    <row r="287" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B287" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="285" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="4" t="s">
+    <row r="288" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="289" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="287" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H287" s="1" t="n">
+    <row r="290" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H290" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="I287" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="J287" s="10" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="288" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H288" s="1" t="n">
+      <c r="I290" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="J290" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="291" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H291" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="I288" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="J288" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="289" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H289" s="1" t="n">
+      <c r="I291" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J291" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="292" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H292" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="I289" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="J289" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="290" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H290" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="I290" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="J290" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="291" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H291" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="I291" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="J291" s="4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="292" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H292" s="1" t="n">
-        <v>71</v>
-      </c>
       <c r="I292" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J292" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="293" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H293" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="I293" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="J293" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="294" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H294" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="I294" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="J294" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="295" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H295" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="I295" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="J295" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="296" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H296" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="I293" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="J293" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="294" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H294" s="1" t="n">
+      <c r="I296" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J296" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="297" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H297" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="I294" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="J294" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="295" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="4" t="s">
+      <c r="I297" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J297" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="298" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B298" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="296" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="4" t="s">
+    <row r="299" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="297" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H297" s="1" t="n">
+    <row r="300" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H300" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="I297" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="J297" s="10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="298" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H298" s="1" t="n">
+      <c r="I300" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="J300" s="10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="301" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H301" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="I298" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="J298" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="299" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H299" s="1" t="n">
+      <c r="I301" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J301" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="302" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H302" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="I299" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="J299" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="300" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H300" s="1" t="n">
+      <c r="I302" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J302" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="303" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H303" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="I300" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="J300" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="301" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H301" s="1" t="n">
+      <c r="I303" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="J303" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="304" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H304" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="I301" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="J301" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H302" s="1" t="n">
+      <c r="I304" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="J304" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H305" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="I302" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="J302" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="K302" s="1"/>
-    </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="4" t="s">
+      <c r="I305" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J305" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="K305" s="1"/>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B306" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K303" s="1"/>
-    </row>
-    <row r="304" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="305" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="306" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="4" t="s">
+      <c r="K306" s="1"/>
+    </row>
+    <row r="307" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="308" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="309" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="307" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H307" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="I307" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J307" s="10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="308" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H308" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="I308" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="J308" s="10" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="309" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H309" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="I309" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="J309" s="10" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="310" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H310" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="I310" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="J310" s="10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="311" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H311" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="I311" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="J311" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="312" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H312" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="I312" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="J312" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="313" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H313" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="I310" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="J310" s="10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="311" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H311" s="1" t="n">
+      <c r="I313" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J313" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="314" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H314" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="I311" s="4" t="s">
+      <c r="I314" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J311" s="4" t="s">
+      <c r="J314" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="312" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H312" s="1" t="n">
+    <row r="315" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H315" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="I312" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="J312" s="10" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H313" s="1" t="n">
+      <c r="I315" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="J315" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H316" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="I313" s="4" t="s">
+      <c r="I316" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J313" s="10" t="s">
+      <c r="J316" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="K313" s="1"/>
-    </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="4" t="s">
+      <c r="K316" s="1"/>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B317" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K314" s="1"/>
-    </row>
-    <row r="316" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="317" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="318" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="4" t="s">
+      <c r="K317" s="1"/>
+    </row>
+    <row r="319" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="320" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="321" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="319" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H319" s="1" t="n">
+    <row r="322" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H322" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="I319" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="J319" s="10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="320" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H320" s="1" t="n">
+      <c r="I322" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J322" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="323" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H323" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="I320" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="J320" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="321" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H321" s="1" t="n">
+      <c r="I323" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J323" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="324" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H324" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="I321" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="J321" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="322" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H322" s="1" t="n">
+      <c r="I324" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="J324" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="325" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H325" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="I322" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="J322" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="323" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H323" s="1" t="n">
+      <c r="I325" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="J325" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="326" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H326" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="I323" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="J323" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H324" s="1" t="n">
+      <c r="I326" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="J326" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H327" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="I324" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="J324" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="K324" s="1"/>
-    </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B325" s="4" t="s">
+      <c r="I327" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="J327" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="K327" s="1"/>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B328" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K325" s="1"/>
-    </row>
-    <row r="326" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="327" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="328" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="4" t="s">
+      <c r="K328" s="1"/>
+    </row>
+    <row r="329" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="330" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="331" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="329" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H329" s="1" t="n">
+    <row r="332" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H332" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I329" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="J329" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="330" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H330" s="1" t="n">
+      <c r="I332" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="J332" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="333" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H333" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I330" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="J330" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="331" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H331" s="1" t="n">
+      <c r="I333" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="J333" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="334" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H334" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I331" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="J331" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="332" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H332" s="1" t="n">
+      <c r="I334" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="J334" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="335" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H335" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I332" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="J332" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="333" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H333" s="1" t="n">
+      <c r="I335" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="J335" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="336" s="1" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H336" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="I333" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="J333" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="334" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H334" s="1" t="n">
+      <c r="I336" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="J336" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="337" s="1" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H337" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="I334" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="J334" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="335" s="1" customFormat="true" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H335" s="1" t="n">
+      <c r="I337" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="J337" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="338" s="1" customFormat="true" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H338" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="I335" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="J335" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H336" s="1" t="n">
+      <c r="I338" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="J338" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H339" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I336" s="4" t="s">
+      <c r="I339" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J336" s="10" t="s">
+      <c r="J339" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="K336" s="1"/>
-    </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B337" s="4" t="s">
+      <c r="K339" s="1"/>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B340" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K337" s="1"/>
-    </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="1" t="s">
+      <c r="K340" s="1"/>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D340" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H341" s="1" t="n">
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D343" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H344" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I341" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="J341" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H342" s="1" t="n">
+      <c r="I344" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="J344" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H345" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="I342" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="J342" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B343" s="1" t="s">
+      <c r="I345" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="J345" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B346" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H343" s="1" t="n">
+      <c r="H346" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I343" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="J343" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H346" s="1" t="n">
+      <c r="I346" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J346" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="H349" s="1" t="n">
         <v>11</v>
-      </c>
-      <c r="I346" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="J346" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B347" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H347" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="I347" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="J347" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B348" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H348" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="I348" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="J348" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B349" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H349" s="1" t="n">
-        <v>14</v>
       </c>
       <c r="I349" s="1" t="s">
         <v>529</v>
@@ -7173,49 +7213,100 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H350" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B351" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H351" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B352" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H352" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B353" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D350" s="1" t="s">
+      <c r="D353" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H354" s="1" t="n">
+      <c r="H357" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="I354" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="J354" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B355" s="1" t="s">
+      <c r="I357" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B358" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H359" s="1" t="n">
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H362" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="I359" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="J359" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B360" s="1" t="s">
+      <c r="I362" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B363" s="1" t="s">
         <v>141</v>
       </c>
     </row>
